--- a/logs/chat/chat_log_2025-06-30.xlsx
+++ b/logs/chat/chat_log_2025-06-30.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,19 +441,76 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>02:21:03</t>
+          <t>05:50:44</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>hi</t>
+          <t>你好</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>嘿，小朋友！看起來你很有興趣想要了解喝酒的相關內容呢！我非常高興可以幫助你。
-你覺得哪理不懂呢？或者你可以說說你是過什麼方法嗎？
-(你可以回答這些問題，我就會根據你的反應給予適當的解釋和幫助。)</t>
+          <t>瞭解了，你覺得哪方面的喝酒問題不懂呢?
+(如果學生還不知道該從何說起，老師可以問) 我們先一起來思考什麼是適量喝酒？
+你知道嗎？適量喝酒是指在吃飯時或是在聚會時，只喝一點點酒，不要過度飲酒。這樣可以讓我們享受飲食和社交的樂趣，同時也保持健康。
+舉例來說，如果你去吃晚餐，你可以稍微喝一些葡萄酒或者啤酒，但不可以醉倒在桌上或是在路上走路時喝酒。
+還有，我們要記得酒精對於年輕人的身體是非常危險的。如果我們喝太多酒，會很容易把事搞砸，甚至會傷害自己和別人。
+那麼，你覺得自己會怎樣才能夠適量地喝酒呢？</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>05:54:50</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>你好</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>親愛的學生，你對這支影片有什麼樣的感受呢？看了影片之後，你覺得喝酒對我們有什麼影響嗎？
+你覺得哪理不懂呢？</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>06:10:34</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>你好</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>不好意思，還沒有清楚地了解你的問題。
+你覺得哪方面不懂呢？或者你可以說說你是如何看待喝酒的態度？我會一步步幫助你理解和思考這個問題。</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>06:15:48</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>你好</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>唷！小朋友，你有看過那支影片嗎？想知道它說了些什麼吧？
+好！我要問你一題，先聽完這支影片後，你的態度是怎樣的呢？是覺得喝酒的風險更大了？還是覺得適量喝酒沒問題？或許覺得有些問題想借鵝用雞了？還是有其他想法？</t>
         </is>
       </c>
     </row>

--- a/logs/chat/chat_log_2025-06-30.xlsx
+++ b/logs/chat/chat_log_2025-06-30.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,7 +441,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>05:50:44</t>
+          <t>06:29:54</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -451,19 +451,15 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>瞭解了，你覺得哪方面的喝酒問題不懂呢?
-(如果學生還不知道該從何說起，老師可以問) 我們先一起來思考什麼是適量喝酒？
-你知道嗎？適量喝酒是指在吃飯時或是在聚會時，只喝一點點酒，不要過度飲酒。這樣可以讓我們享受飲食和社交的樂趣，同時也保持健康。
-舉例來說，如果你去吃晚餐，你可以稍微喝一些葡萄酒或者啤酒，但不可以醉倒在桌上或是在路上走路時喝酒。
-還有，我們要記得酒精對於年輕人的身體是非常危險的。如果我們喝太多酒，會很容易把事搞砸，甚至會傷害自己和別人。
-那麼，你覺得自己會怎樣才能夠適量地喝酒呢？</t>
+          <t>您好！我很樂意幫助您。
+首先，我們需要了解影片字幕內容摘要。你可以告訴我這個影片的題目或內容大概是什麼嗎？這樣我才能更好地提供你想要知道的答案。</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>05:54:50</t>
+          <t>06:30:22</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -473,15 +469,15 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>親愛的學生，你對這支影片有什麼樣的感受呢？看了影片之後，你覺得喝酒對我們有什麼影響嗎？
-你覺得哪理不懂呢？</t>
+          <t>對不起，我看不到影片字幕內容摘要。你可以告訴我這個影片是什麼題目或內容大概是什麼嗎？這樣我才能幫助你更好地了解。
+另外，根據你的問題，我會先詢問你：「你覺得哪裡不太懂呢？」或「你可以說說你是用什麼方法解題的嗎？」來了解你的學習狀況。之後，我們一起一步步地討論並找出答案。</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>06:10:34</t>
+          <t>06:31:06</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -491,26 +487,216 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>不好意思，還沒有清楚地了解你的問題。
-你覺得哪方面不懂呢？或者你可以說說你是如何看待喝酒的態度？我會一步步幫助你理解和思考這個問題。</t>
+          <t>現在，我們開始討論了。
+由於影片字幕內容摘要是相同的，我認為這可能是網頁或鏈接連結到同一個 YouTube 影片。因此，這個問題可能與 YouTube 相關，或者是一個網站連結錯誤。
+如果你是想問如何解決 YouTube 問題或網站連結錯誤，我可以幫助你回答。但如果你有其他的問題，請告訴我，你可以描述一下你的問題是什么？</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>06:15:48</t>
+          <t>06:31:37</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>你知道我們的教材是什麼嗎</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>現在，我們開始討論了。
+我可以幫助你了解更多關於教材內容。
+首先，讓我們確認一下，你覺得哪裡不太懂呢？你可以告訴我，你是用什麼方法來學習或檢視教材的嗎？
+假設你的教材是相關科目的課本，如果你想知道某個章節或題目解釋，我可以幫助你分析或提供一些示範例子。
+如果你有任何問題或疑問，請告訴我，我將會盡力幫助你！</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>06:32:18</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>總結教材</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>現在，我們開始討論了。
+你想要了解如何總結教材的內容和技巧吧！這是一個很好的學習策略，能夠幫助你記住學到的知識并理解題目中的關鍵點。
+讓我們一步步來討論。首先，我們需要確定你所指的 "教材" 是什麼？是課本、手冊還是其他類型的教材？
+假設你的教材是一個課本，你可以告訴我，你覺得哪裡不太懂呢？哪些章節或題目你覺得很難總結或記住？
+這樣，我們才能一起分析和找出有效的總結技巧。要不要先試著對某一小段教材做個簡單的總結，然後我們就可以共同評估和完善呢？</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>06:33:48</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>你好</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>唷！小朋友，你有看過那支影片嗎？想知道它說了些什麼吧？
-好！我要問你一題，先聽完這支影片後，你的態度是怎樣的呢？是覺得喝酒的風險更大了？還是覺得適量喝酒沒問題？或許覺得有些問題想借鵝用雞了？還是有其他想法？</t>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>要幫助你，我們需要先了解你的學習需求。你覺得哪裡不太懂呢？或是，你可以說說你是用什麼方法解題的嗎？這樣我才能更好地理解你的問題並提供適當的解答。</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>06:39:26</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>你好</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>您想詢問什麼問題呢？我這裡有空等著幫助您！</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>06:39:35</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>總結教材</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>您想詢問什麼問題呢？根據您的問題，「總結教材」應該是指整理學過的內容、重新回顧學習過程以及確立自己的理解。
+但由於影片字幕顯示為一堆數字 "7"，我不清楚您想詢問的是什麼題目或教材。能夠提供更多資訊嗎？例如，您在哪個課堂學了什麼內容或者遇到了什麼問題？</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>06:41:12</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>hi</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>你覺得哪裡不太懂呢？看起來這個影片是 YouTube 的相關內容，但因為沒有提供具體的題目或問題，所以我無法知道要幫助什麼。
+如果你可以提供更多的信息或詢問關於哪一部分不清楚，我將樂意協助你理解。</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>06:41:16</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>你好</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>哈哈！看起來這個影片的字幕內容是一串重複的 "7"，沒有提供任何有意義的資訊。
+如果你能夠告訴我影片的標題或描述，我可以幫助你了解影片的目的和內容。或者，你也可以詢問關於某個特定的問題或學科，我將樂意協助你理解。
+讓我們一起找到答案吧！你覺得哪裡不太懂呢？</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>06:41:30</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>總結教材</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>看起來這個影片的字幕內容是一串重複的 "7"，沒有提供任何有意義的資訊。
+如果你想要總結教材，我可以幫助你建立一個步驟式的思路：
+1. 什麼是你需要總結的教材？哪一科目或課題？
+2. 你能夠告訴我你現在已經了解了什麼？有哪些重要概念或事項？
+3. 我們可以一步一步地梳理和整理你的學習內容，確保你完全理解。
+或者，我可以幫助你創造一個簡單的例子或思维导图來帮助你記住和總結教材。
+讓我們一起找出一個有效的方法！你覺得哪裡不太懂呢？</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>06:45:31</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>你好</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>您好！我可以幫助你了解問題的內容。
+雖然影片字幕沒有提供任何相關資訊，但您想要詢問什麼呢？是哪一部分不太懂或者需要幫助的地方嗎？
+讓我們一步步地一起解釋，我會用繁體中文進行說明，並且舉例子來幫助你更好地理解。</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>06:47:35</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>看起來好像找不到問題囉！您可以先描述一下您不懂的內容或是有什麼困擾，讓我一步步幫助您了解和解決問題。</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>06:50:44</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>hi</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>你覺得哪裡不太懂呢？我們可以從頭開始慢慢地一起理解。影片內容看起來是空的，好像沒有提供任何資訊。我們可以嘗試找出問題的原因，或是問問你有什麼想要了解的東西嗎？</t>
         </is>
       </c>
     </row>

--- a/logs/chat/chat_log_2025-06-30.xlsx
+++ b/logs/chat/chat_log_2025-06-30.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -700,6 +700,316 @@
         </is>
       </c>
     </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>07:07:58</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>hi</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>你覺得哪裡不太懂呢？今天這個主題是關於高齡駕駛的挑戰，尤其是在交通認知方面。
+根據研究發現，雖然交通規則是硬性的知識，但軟技能，如注意周遭來車、察言觀色和見機行事，也非常重要。例如，在騎入待轉區時，有68.7%的受測者忽略了右後方的直行車，64.2%未注意前方右轉車。
+這些都是需要經驗和熟練的技巧，即使對年輕人也不簡單，更不用說高齡駕駛了。研究還指出，生理上的退化是老化導致交通事故率提高的另一個關鍵原因。隨著年齡增長，駕駛所需的感知和認知功能多半會下降，包括視覺、空間處理和注意力。
+但這並不意味著高齡者無法駕駛。事實上，這些能力退化在某些情況下可靠經驗來彌補。但是，如果生理性的衰退仍然存在，那麼我們就需要對老年人的交通需求進行重視和改善。
+那麼，如何同時減少高齡駕駛的風險，又能維持高齡者「行的正義」呢？這是一個值得深思的問題，尤其是在高齡化程度更高的鄉村地區。</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>07:48:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>07:53:00</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>你好</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>07:53:13</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>?</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>很高興能夠幫助您！您今天遇到的困難是什麼？是否在數學、語文或是其他科目？無論何種問題，我都會盡我所能為您解答。請告訴我，您覺得哪裡不太懂呢？</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>07:53:20</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>總結教材</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>07:53:41</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>總結教材</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>(等待學生回覆)</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>07:53:49</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>response = qa_chain.invoke("什麼是 RAG？")</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>07:53:55</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>總結教材</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>當學生回答出卡住的部分後，導師可以進行下一步的輔導：
+你知道這個概念是在課本的哪一章節被介紹嗎？或許我們可以先一起回顧一下，並且從那裡再繼續學習。
+或者，可以問：
+你之前是用什麼方法解題的呢？是否有成功地解過類似的問題？
+這樣可以幫助導師了解學生的思考模式和學習經歷，進而提供適合他的輔導方式。</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>08:00:05</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>你好</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>08:00:18</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>總結教材</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>我很高興能夠幫助您學習！首先，我想知道您在哪里卡住了？您覺得哪裡不太懂呢？我們一步步一起解決。</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>08:00:23</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>總結教材</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>08:00:26</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>?</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>如果您有任何問題或需要澄清的事項，都可以跟我說。</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>21:28:44</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>你好</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>我很高興能幫助你！根據影片字幕內容，我會一步步地將問題進行分解和解釋。
+首先，你覺得哪裡不太懂呢？你可以說說你是用什麼方法解題的嗎？
+(等待你的回應後，開始進行詳盡的解釋)</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>21:29:02</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>總結教材</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>很好！根據影片字幕內容，我可以幫助你理解這個問題了。
+首先，你覺得哪裡不太懂呢？你可以說說你是用什麼方法解題的嗎？
+(等待你的回應後，開始進行詳盡的解釋)
+總結來說，這個問題關於高齡駕駛（老年人開車）的風險和安全性。研究表明，隨著年齡增長，駕駛所需的感知跟認知功能多半會下降，包括視覺、空間處理與注意力。
+舉個例子，如果你是一位80歲的高齡駕駛，你可能會遇到以下問題：
+* 你看見車來，但不一定能夠正確判斷距離和速度。
+* 你可能會忘記右轉時要注意前方直行車輛，或是忽略後方直行車輛。
+* 您的視力或聽覺可能會下降，使得駕駛時難以適應。
+但是，這並不意味著所有高齡駕駛都有這些問題。許多老年人通過經驗和訓練來補充自己的能力，例如，在交通中使用後照鏡觀察後方車輛，或是正確使用方向燈等。
+然而，這些問題也反映出高齡駕駛面臨的挑戰。但是，我們需要注意的是，交通知識雖然可以透過學習補足，但生理上的退化則是我們在科技上尚未能「返老還童」之前必須嚴肅面對的問題。
+最後，這個問題也提出了如何同時減少高齡駕駛的風險和維持生活品質的議題。日本提供了一個值得參考的做法，就是建立了「自願繳回駕照制度」，並搭配誘因鼓勵高齡駕駛人「榮譽退休」。這樣不僅能夠減少風險，也能夠保證老年人的生活品質。
+你覺得有什麼需要進一步討論的地方嗎？</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>21:29:42</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>總結</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>首先，我們需要了解影片中提到的兩個關鍵問題。
+第一個問題是「高齡駕駛的交通認知挑戰」。這表明年輕人和老年人的交通行為差異很大，需要經驗和熟練才能運用軟技能，比如察言觀色、見機行事等。
+接下來，我們來看第二個問題「造成事故率提高的第二個關鍵原因」。根據研究，生理上的退化是老年駕駛面臨的另一個挑戰。隨著年齡增長，駕駛所需的感知和認知功能會下降，包括視覺、空間處理與注意力等。
+現在，我們來討論如何同時減少高齡駕駛的風險又能維持老人「行的正義」。這是一個複雜的問題，但也不能忽視，因為在高齡化程度更高的鄉村地區，這個問題已經非常迫切。
+最後，我們來看看未來可能面臨的挑戰。例如，當我們把控制權交給電腦時，交通真的變得比較安全嗎？這是另外一個需要深入探討的議題。
+總而言之，這些內容提供了對高齡駕駛和交通問題的關注，以及思考如何找到平衡點來解決這個問題。</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>21:31:37</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>總結</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>好的，讓我們一步步來了解這個問題。
+你覺得哪裡不太懂呢？或者，你可以說說你是用什麼方法解題的嗎？
+看起來，你想了解NVIDIA新推出的RTX 5050顯示卡的規格和競爭力。你想要知道它是否適合入門需求市場，以及它與其他顯卡相比有沒有優勢。
+好的，我們一步步來分析這個問題。首先，讓我們看一下RTX 5050的規格：
+* 晶片代號為GB207
+* 採用Blackwell架構
+* 台積電4N製程製造
+* 總共配置了20組SM單元，2560個CUDA
+* VRAM大小為8GB，但使用的是GDDR6
+你可以看到RTX 5050與其他顯卡有很多相似之處。它的核心性能和VRAM配置都很合理，但是它是否能夠競爭市場上的其他顯卡呢？
+好比如，我們可以看一下RTX 5060和RTX 5050的比較：
+* RTX 5060的核心性能遠高於RTX 5050，但它的VRAM大小也是8GB。
+* RTX 5050的VRAM配置在這裡是合理的，因為它的核心性能不夠強大，需要更多的VRAM來支撐。
+所以，我們可以結論說，RTX 5050是一個相對入門需求市場更友善的顯卡，它的核心性能和VRAM配置都很合理。但是，它是否能夠競爭市場上的其他顯卡呢？這就需要更多的分析了。
+最後，我想跟你分享一個小故事。曾經有一位老電腦玩家，他使用的是一代遊戲神卡GTX 750 Ti。他愛死這張卡了，因為它低功耗高效能。
+我們可以從這個故事中看到，顯卡的選擇需要根據自己的需求和預算來決定。RTX 5050是一個相對入門需求市場更友善的顯卡，但它是否適合你呢？這就需要你自己來分析和比較了。
+希望這些資訊可以幫助你了解NVIDIA新推出的RTX 5050顯示卡的規格和競爭力。如果你還有任何問題或疑問，歡迎在下方留言告訴我！</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>21:53:38</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>總結</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>以此類推，你也可以在生活中運用這樣的方法，例如：當你需要向朋友介紹某個新電影時，你會選擇最吸引人的地方，並將它們用自己的話語描述出來。
+（以親切且鼓勵的語氣回答，並提供簡單明瞭的例子）</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>21:56:49</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>總結影片</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
